--- a/biology/Botanique/Odontonema/Odontonema.xlsx
+++ b/biology/Botanique/Odontonema/Odontonema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Odontonema regroupe des plantes à fleurs de la famille des Acanthacées originaires d'Amérique.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon GBIF       (21 août 2023)[1] :
+Selon GBIF       (21 août 2023) :
 Odontonema albiflorum Leonard
 Odontonema album V.M.Baum
 Odontonema aliciae T.F.Daniel &amp; J.F.Carrión
@@ -581,10 +595,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Odontonema Nees[1].
-Odontonema a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Odontonema Nees.
+Odontonema a pour synonymes :
 Diateinacanthus Lindau
 Phidiasia Urb.</t>
         </is>
